--- a/Protokolwzor.xlsx
+++ b/Protokolwzor.xlsx
@@ -305,9 +305,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -334,69 +397,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,15 +488,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>123840</xdr:colOff>
+      <xdr:colOff>114315</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>9390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>122400</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>169725</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -509,8 +509,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2228865" y="28440"/>
-          <a:ext cx="608160" cy="331785"/>
+          <a:off x="2219340" y="9390"/>
+          <a:ext cx="657210" cy="362085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -828,7 +828,7 @@
   <dimension ref="A1:I999"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -846,564 +846,564 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30">
         <f ca="1">TODAY()</f>
         <v>44908</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="30"/>
+      <c r="F2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="3" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="3" t="s">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -2374,30 +2374,22 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A42:C45"/>
-    <mergeCell ref="D42:F43"/>
-    <mergeCell ref="G42:I45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F46"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A36:I40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:D9"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:I9"/>
     <mergeCell ref="A10:E11"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F11:I11"/>
@@ -2414,22 +2406,30 @@
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:D9"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:I7"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A36:I40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A42:C45"/>
+    <mergeCell ref="D42:F43"/>
+    <mergeCell ref="G42:I45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F46"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Protokolwzor.xlsx
+++ b/Protokolwzor.xlsx
@@ -305,98 +305,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -846,564 +846,564 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9">
         <f ca="1">TODAY()</f>
         <v>44908</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="F2" s="31" t="s">
+      <c r="D2" s="9"/>
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="24" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="24" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="24" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5" t="s">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5" t="s">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="5" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -2374,22 +2374,30 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:D9"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:I7"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A42:C45"/>
+    <mergeCell ref="D42:F43"/>
+    <mergeCell ref="G42:I45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F46"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A36:I40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
     <mergeCell ref="A10:E11"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F11:I11"/>
@@ -2406,30 +2414,22 @@
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A36:I40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A42:C45"/>
-    <mergeCell ref="D42:F43"/>
-    <mergeCell ref="G42:I45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F46"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:D9"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Protokolwzor.xlsx
+++ b/Protokolwzor.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="Ten_skoroszyt1" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.winiarski\Desktop\autoresursy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr codeName="Ten_skoroszyt1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -41,13 +36,7 @@
     <t>PROTOKÓŁ NR</t>
   </si>
   <si>
-    <t>WINIARSKI WÓZKI WIDŁOWE   Telefon: +48 796 415 006</t>
-  </si>
-  <si>
     <t>DATA</t>
-  </si>
-  <si>
-    <t>Łukasz Winiarski   E-mail: serwis@serwislinde.pl</t>
   </si>
   <si>
     <t>ZLECENIODAWCA</t>
@@ -88,11 +77,17 @@
   <si>
     <t>Do momentu zapłaty zamontowane części są własnością sprzedawcy. Na wszystkie części nowe udzielamy 6 miesięcy gwarancji.</t>
   </si>
+  <si>
+    <t>Telefon: +48 796 415 006</t>
+  </si>
+  <si>
+    <t>E-mail: serwis@serwislinde.pl</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -305,98 +300,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,74 +482,44 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114315</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>294475</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9390</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47261</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="4" name="Obraz 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2219340" y="9390"/>
-          <a:ext cx="657210" cy="362085"/>
+          <a:off x="2104952" y="0"/>
+          <a:ext cx="1952261" cy="411138"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>236880</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>170085</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image2.jpg"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2155320" y="9829800"/>
-          <a:ext cx="217800" cy="341640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -817,7 +782,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -827,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:F43"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="262" zoomScaleNormal="262" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -846,564 +811,566 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27">
         <f ca="1">TODAY()</f>
         <v>44908</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="3" t="s">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22" t="s">
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -2374,30 +2341,22 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A42:C45"/>
-    <mergeCell ref="D42:F43"/>
-    <mergeCell ref="G42:I45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F46"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A36:I40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:D9"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="G8:I9"/>
     <mergeCell ref="A10:E11"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F11:I11"/>
@@ -2414,22 +2373,30 @@
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:D9"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:I5"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G6:I7"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A36:I40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A42:C45"/>
+    <mergeCell ref="D42:F43"/>
+    <mergeCell ref="G42:I45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F46"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Protokolwzor.xlsx
+++ b/Protokolwzor.xlsx
@@ -792,25 +792,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="262" zoomScaleNormal="262" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
       <selection activeCell="G4" sqref="G4:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
     <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="5.875" customWidth="1"/>
-    <col min="4" max="4" width="3.875" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="5.875" customWidth="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="26" width="7.625" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="10" max="26" width="7.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -825,14 +825,14 @@
       <c r="H1" s="29"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="27">
         <f ca="1">TODAY()</f>
-        <v>44908</v>
+        <v>44949</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="31" t="s">
@@ -843,7 +843,7 @@
       <c r="H2" s="32"/>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
@@ -858,7 +858,7 @@
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
@@ -873,7 +873,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -884,7 +884,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -897,7 +897,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -908,7 +908,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -921,7 +921,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -932,7 +932,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -960,7 +960,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -971,7 +971,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -982,7 +982,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -993,7 +993,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1004,7 +1004,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -1015,7 +1015,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1026,7 +1026,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -1037,7 +1037,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1048,7 +1048,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -1059,7 +1059,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -1070,7 +1070,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -1081,7 +1081,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -1092,7 +1092,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -1103,7 +1103,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1114,7 +1114,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -1125,7 +1125,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1136,7 +1136,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -1147,7 +1147,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1158,7 +1158,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1169,7 +1169,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1180,7 +1180,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1191,7 +1191,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1202,7 +1202,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -1213,7 +1213,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
@@ -1226,7 +1226,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1237,7 +1237,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1248,7 +1248,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1259,7 +1259,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1270,7 +1270,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1281,7 +1281,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>12</v>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1309,7 +1309,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1320,7 +1320,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1333,7 +1333,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1344,7 +1344,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>16</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1382,963 +1382,963 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="56">
     <mergeCell ref="A1:B1"/>

--- a/Protokolwzor.xlsx
+++ b/Protokolwzor.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Nazwa firmy</t>
   </si>
@@ -83,6 +83,12 @@
   <si>
     <t>E-mail: serwis@serwislinde.pl</t>
   </si>
+  <si>
+    <t>Do:</t>
+  </si>
+  <si>
+    <t>Od:</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +151,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +168,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -296,10 +308,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -318,6 +333,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -392,6 +416,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,7 +516,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>47261</xdr:colOff>
+      <xdr:colOff>63683</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>33046</xdr:rowOff>
     </xdr:to>
@@ -792,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:I5"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A34" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -802,8 +829,8 @@
     <col min="2" max="2" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" customWidth="1"/>
     <col min="4" max="4" width="3.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" customWidth="1"/>
     <col min="8" max="8" width="11.08203125" customWidth="1"/>
     <col min="9" max="9" width="10.75" customWidth="1"/>
@@ -811,566 +838,570 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="28" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31">
         <f ca="1">TODAY()</f>
-        <v>44949</v>
+        <v>44950</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="24" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="24" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="24" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6" t="s">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6" t="s">
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="6" t="s">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="6" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
@@ -2340,7 +2371,7 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="57">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B2"/>
@@ -2391,15 +2422,16 @@
     <mergeCell ref="G41:I41"/>
     <mergeCell ref="A47:I47"/>
     <mergeCell ref="A42:C45"/>
-    <mergeCell ref="D42:F43"/>
     <mergeCell ref="G42:I45"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="D45:F46"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D42:E42"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>